--- a/public/format_import_siswa.xlsx
+++ b/public/format_import_siswa.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MyBook Prime E7\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\jurnalsma\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D7FC4DD-CB67-4262-83C4-2C9B1E2FE79E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6296D5F-CC89-4492-96A0-5AD0A6CA7E11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{73663314-A0BC-4D45-B5BE-33E615AD572F}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Nama Siswa</t>
   </si>
@@ -61,6 +61,9 @@
   </si>
   <si>
     <t>JK (L / P)</t>
+  </si>
+  <si>
+    <t>NISN</t>
   </si>
 </sst>
 </file>
@@ -459,21 +462,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6A3EBAF-38FD-4F71-8019-18EF75A666E7}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
-    <col min="2" max="2" width="17" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="43.5546875" customWidth="1"/>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="19.109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="43.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -481,37 +485,46 @@
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>1234567890</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="1">
+        <v>6543217890</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="E3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
